--- a/Inflation/Daten/Inflation_ListeHauptkategorien.xlsx
+++ b/Inflation/Daten/Inflation_ListeHauptkategorien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/infografiken/Inflation/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_97FCF776C3574AFC12484820722E338E0AA3BA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A810CB72-2295-4184-B097-0F8D8843C489}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_97FCF776C3574AFC12484820722E338E0AA3BA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1BF8F5-2E40-41AB-B972-B60D607C93EC}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Position_D</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>Brot, Fleisch, Früchte, Gemüse, Milch</t>
-  </si>
-  <si>
-    <t>Bier, Wein, Spirtuosen, Zigaretten</t>
   </si>
   <si>
     <t>Miete, Elektrizität, Gas, Heizöl</t>
@@ -569,7 +566,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,9 +626,6 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -644,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -661,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -675,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -692,10 +686,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -712,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -726,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -746,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -760,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -780,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -794,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>

--- a/Inflation/Daten/Inflation_ListeHauptkategorien.xlsx
+++ b/Inflation/Daten/Inflation_ListeHauptkategorien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/infografiken/Inflation/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_97FCF776C3574AFC12484820722E338E0AA3BA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1BF8F5-2E40-41AB-B972-B60D607C93EC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_97FCF776C3574AFC12484820722E338E0AA3BA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A448A7-2000-4043-AD00-C8F2AB40E122}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Position_D</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Versicherungen, Schmuck, Körperpflege</t>
+  </si>
+  <si>
+    <t>Beispiele_F</t>
+  </si>
+  <si>
+    <t>Beispiele_I</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,12 +580,13 @@
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="5" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,13 +603,19 @@
         <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -615,11 +628,11 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -629,11 +642,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -643,11 +656,11 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -660,11 +673,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -677,11 +690,11 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -694,11 +707,11 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -711,11 +724,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -728,11 +741,11 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -745,11 +758,11 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -762,11 +775,11 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -779,11 +792,11 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -796,7 +809,7 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Inflation/Daten/Inflation_ListeHauptkategorien.xlsx
+++ b/Inflation/Daten/Inflation_ListeHauptkategorien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/infografiken/Inflation/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_97FCF776C3574AFC12484820722E338E0AA3BA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A448A7-2000-4043-AD00-C8F2AB40E122}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_97FCF776C3574AFC12484820722E338E0AA3BA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43AFD52D-E008-44D1-A9AA-DE5857DBDB17}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,9 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -572,7 +579,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,9 +635,13 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" t="s">
         <v>27</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -642,9 +653,13 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" t="s">
         <v>28</v>
       </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -656,9 +671,13 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -673,9 +692,13 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" t="s">
         <v>30</v>
       </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -690,9 +713,13 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" t="s">
         <v>31</v>
       </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -707,9 +734,13 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" t="s">
         <v>32</v>
       </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -724,9 +755,13 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>33</v>
       </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -741,9 +776,13 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>34</v>
       </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -758,9 +797,13 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" t="s">
         <v>35</v>
       </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -775,9 +818,13 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" t="s">
         <v>36</v>
       </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -792,9 +839,13 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>37</v>
       </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -809,9 +860,13 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
         <v>38</v>
       </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
